--- a/output/excel/palca/rubros.xlsx
+++ b/output/excel/palca/rubros.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">rubro</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Durazno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papa</t>
   </si>
   <si>
     <t xml:space="preserve">Tubérculo</t>
@@ -507,7 +510,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>-67.90718</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>-67.89276</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>-67.87697</v>
@@ -540,7 +543,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>-68.04314</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>-67.9319</v>
@@ -562,7 +565,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>-67.83234</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>-68.06786</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>-67.8495</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>-67.72453</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>-67.85774</v>
@@ -617,7 +620,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>-67.98752</v>
@@ -628,7 +631,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>-67.68745</v>
